--- a/app/tables/scan_childvacc_825_pg3/forms/scan_childvacc_825_pg3/scan_childvacc_825_pg3.xlsx
+++ b/app/tables/scan_childvacc_825_pg3/forms/scan_childvacc_825_pg3/scan_childvacc_825_pg3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18200" windowHeight="8500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="74">
   <si>
     <t>setting_name</t>
   </si>
@@ -241,6 +241,9 @@
   </si>
   <si>
     <t>hideInContents</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -581,13 +584,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="F92" sqref="F92"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="5" max="5" width="50.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1096,6 +1099,9 @@
       <c r="D60" t="s">
         <v>55</v>
       </c>
+      <c r="F60" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
@@ -1127,6 +1133,9 @@
       </c>
       <c r="D64" t="s">
         <v>57</v>
+      </c>
+      <c r="F64" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1163,6 +1172,9 @@
       <c r="E68" t="s">
         <v>18</v>
       </c>
+      <c r="F68" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
@@ -1198,6 +1210,9 @@
       <c r="E72" t="s">
         <v>19</v>
       </c>
+      <c r="F72" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
@@ -1230,6 +1245,9 @@
       <c r="D76" t="s">
         <v>63</v>
       </c>
+      <c r="F76" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
@@ -1262,6 +1280,9 @@
       <c r="D80" t="s">
         <v>65</v>
       </c>
+      <c r="F80" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
@@ -1294,6 +1315,9 @@
       <c r="D84" t="s">
         <v>67</v>
       </c>
+      <c r="F84" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
@@ -1325,6 +1349,9 @@
       </c>
       <c r="D88" t="s">
         <v>69</v>
+      </c>
+      <c r="F88" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -1378,7 +1405,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
@@ -1397,66 +1426,66 @@
       <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
